--- a/enderecos.xlsx
+++ b/enderecos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Desktop\ORGANIZADOR\CODING\PYTHON\FIVERR_IFOOD_SCRAPER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9393930C-A367-4D3F-86FC-178537C61F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0EC59-BADD-4513-B62E-0DF8C5C2FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="ENDERECOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENDERECOS!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ENDERECOS!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Avenida Joao XXIII Saraiva</t>
   </si>
@@ -45,13 +45,19 @@
     <t>NUMERO_DE_PAGINAS</t>
   </si>
   <si>
-    <t>Pirenópolis</t>
-  </si>
-  <si>
     <t>s/n</t>
   </si>
   <si>
     <t>todas</t>
+  </si>
+  <si>
+    <t>COLETAR</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Pirenópolis rua</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -402,7 +408,7 @@
     <col min="3" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -412,42 +418,54 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>438</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/enderecos.xlsx
+++ b/enderecos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Desktop\ORGANIZADOR\CODING\PYTHON\FIVERR_IFOOD_SCRAPER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clib_\OneDrive\Desktop\SHAPER\PROJECTS\FIVERR\ifood-scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A0EC59-BADD-4513-B62E-0DF8C5C2FFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AFD06-1E42-4C48-984F-90D6EED19A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENDERECOS" sheetId="1" r:id="rId1"/>
@@ -28,43 +28,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Avenida Joao XXIII Saraiva</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>NUMERO</t>
   </si>
   <si>
-    <t>Avenida José Neto Paranhos Anápolis</t>
-  </si>
-  <si>
     <t>ENDERECO</t>
   </si>
   <si>
     <t>NUMERO_DE_PAGINAS</t>
   </si>
   <si>
-    <t>s/n</t>
+    <t>COLETAR</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>UFMG campus Pampulha - Avenida Presidente Antônio Carlos, 6627 - Pampulha</t>
+  </si>
+  <si>
+    <t>UFMG campus Saúde - Avenida Professor Alfredo Balena, 190 - Santa Efigênia</t>
+  </si>
+  <si>
+    <t>UFMG Escola de Arquitetura - Rua Paraíba, 697 - Savassi</t>
+  </si>
+  <si>
+    <t>UFMG Escola de Direito - Avenida João Pinheiro, 100, Centro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puc Minas campus Coração Eucarístico - Rua Dom José Gaspar, 500 - Coração Eucarístico </t>
+  </si>
+  <si>
+    <t>Puc Minas campus Praça da liberdade - Avenida Brasil, 2023 - Savassi</t>
+  </si>
+  <si>
+    <t>Puc Minas Campus São Gabriel - Rua Walter Ianni, 255 - São Gabriel</t>
+  </si>
+  <si>
+    <t>Puc Minas Campus Barreiro - Avenida Afonso Vaz de Melo, 1200 - Barreiro</t>
+  </si>
+  <si>
+    <t>Bairro: Castelo - Avenida Altamiro Avelino Soares, 625 - Castelo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bairro: São Lucas - Rua Engenheiro Carlos Antonini, 172 - São Lucas</t>
+  </si>
+  <si>
+    <t>Bairro: Cruzeiro - Rua Cabo Verde, 287 - Cruzeiro</t>
+  </si>
+  <si>
+    <t>Bairro: Padre Eustáquio - Rua Riachuelo, 1827 - Padre Eustáquio</t>
+  </si>
+  <si>
+    <t>Bairro: Lourdes - Rua Curitiba, 1923 - Lourdes</t>
+  </si>
+  <si>
+    <t>Bairro: Goiânia - Rua Maria Conceição Bonfim, 1360 - Goiânia</t>
+  </si>
+  <si>
+    <t>Bairro: Floresta - Avenida Assis Chateaubriand, 194 - Floresta</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>todas</t>
   </si>
   <si>
-    <t>COLETAR</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Pirenópolis rua</t>
+    <t>Bairro: Santa Helena - Rua José Forcal, 34 - Santa Helena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,8 +119,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +138,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -115,6 +174,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,73 +462,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6627</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>190</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>697</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>100</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>500</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>438</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>255</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>625</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>172</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>287</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>194</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1827</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1923</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1360</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
